--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>0.99774846441</v>
+        <v>0.491761954737</v>
       </c>
       <c r="R2">
-        <v>8.979736179689999</v>
+        <v>4.425857592633</v>
       </c>
       <c r="S2">
-        <v>0.02415768085999086</v>
+        <v>0.01239343341048897</v>
       </c>
       <c r="T2">
-        <v>0.02415768085999086</v>
+        <v>0.01239343341048897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>7.152206211531001</v>
+        <v>7.152206211531</v>
       </c>
       <c r="R3">
-        <v>64.36985590377901</v>
+        <v>64.369855903779</v>
       </c>
       <c r="S3">
-        <v>0.1731706149056124</v>
+        <v>0.1802506081791158</v>
       </c>
       <c r="T3">
-        <v>0.1731706149056124</v>
+        <v>0.1802506081791158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
         <v>4.732031588130001</v>
@@ -694,10 +694,10 @@
         <v>42.58828429317</v>
       </c>
       <c r="S4">
-        <v>0.1145728738285137</v>
+        <v>0.1192571280045122</v>
       </c>
       <c r="T4">
-        <v>0.1145728738285137</v>
+        <v>0.1192571280045122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.390089</v>
       </c>
       <c r="I5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>2.201176585176666</v>
+        <v>1.084897585773667</v>
       </c>
       <c r="R5">
-        <v>19.81058926659</v>
+        <v>9.764078271963001</v>
       </c>
       <c r="S5">
-        <v>0.05329531776591271</v>
+        <v>0.02734169623527924</v>
       </c>
       <c r="T5">
-        <v>0.05329531776591271</v>
+        <v>0.02734169623527923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.390089</v>
       </c>
       <c r="I6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
         <v>15.77879536450767</v>
@@ -818,10 +818,10 @@
         <v>142.009158280569</v>
       </c>
       <c r="S6">
-        <v>0.3820392778016277</v>
+        <v>0.3976587610408823</v>
       </c>
       <c r="T6">
-        <v>0.3820392778016277</v>
+        <v>0.3976587610408823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.390089</v>
       </c>
       <c r="I7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>10.43954213276333</v>
       </c>
       <c r="R7">
-        <v>93.95587919487001</v>
+        <v>93.95587919487002</v>
       </c>
       <c r="S7">
-        <v>0.2527642348383426</v>
+        <v>0.2630983731297215</v>
       </c>
       <c r="T7">
-        <v>0.2527642348383426</v>
+        <v>0.2630983731297215</v>
       </c>
     </row>
   </sheetData>
